--- a/hiqu/HR/Performance Evaluation/October 2024/QA/Ayesha Qurban.xlsx
+++ b/hiqu/HR/Performance Evaluation/October 2024/QA/Ayesha Qurban.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\docs\hiqu\HR\Performance Evaluation\September 2024\QA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\docs\hiqu\HR\Performance Evaluation\October 2024\QA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEF3AFA8-5D05-4886-9AD8-18A49A39B835}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F8E9FF5-9BF7-4D02-9D29-A75C5042FE3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{C18F1D24-2B51-47D5-ADD3-847EF68750D1}"/>
+    <workbookView xWindow="20370" yWindow="-3840" windowWidth="29040" windowHeight="15720" xr2:uid="{C18F1D24-2B51-47D5-ADD3-847EF68750D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Employee" sheetId="2" r:id="rId1"/>
@@ -713,6 +713,12 @@
     <xf numFmtId="9" fontId="0" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -772,12 +778,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2789,7 +2789,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9386B91B-8D62-4F20-9CB7-F711303AA283}">
   <dimension ref="B2:N21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
@@ -2801,18 +2801,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" ht="21" x14ac:dyDescent="0.35">
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="35"/>
+      <c r="C2" s="37"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
       <c r="F4" s="21"/>
       <c r="G4" s="21"/>
     </row>
@@ -2820,11 +2820,11 @@
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
     </row>
@@ -2832,11 +2832,11 @@
       <c r="B6" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="32" t="s">
+      <c r="C6" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
     </row>
@@ -2844,11 +2844,11 @@
       <c r="B7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="32" t="s">
+      <c r="C7" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
     </row>
@@ -2856,11 +2856,11 @@
       <c r="B8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="32" t="s">
+      <c r="C8" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
     </row>
@@ -2868,11 +2868,11 @@
       <c r="B9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="32" t="s">
+      <c r="C9" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
     </row>
@@ -2880,12 +2880,12 @@
       <c r="B10" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C10" s="33">
+      <c r="C10" s="35">
         <f ca="1">(_xlfn.DAYS(TODAY(),C9)/365)</f>
-        <v>2.6931506849315068</v>
-      </c>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
+        <v>2.7232876712328768</v>
+      </c>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
       <c r="F10" s="17"/>
       <c r="G10" s="17"/>
     </row>
@@ -2893,11 +2893,11 @@
       <c r="B11" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="32" t="s">
+      <c r="C11" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
     </row>
@@ -3176,13 +3176,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="38" t="s">
         <v>92</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
     </row>
     <row r="3" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B3" s="27"/>
@@ -3199,12 +3199,12 @@
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" s="29"/>
-      <c r="C4" s="40" t="s">
+      <c r="C4" s="42" t="s">
         <v>91</v>
       </c>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" s="30" t="s">
@@ -3224,13 +3224,13 @@
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="42" t="s">
+      <c r="B6" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="39"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="41"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7" s="14" t="s">
@@ -3321,13 +3321,13 @@
       <c r="F14" s="23"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B15" s="37" t="s">
+      <c r="B15" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="39"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="41"/>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B16" s="18" t="s">
@@ -3407,13 +3407,13 @@
       <c r="F22" s="23"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="37" t="s">
+      <c r="B23" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="38"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="38"/>
-      <c r="F23" s="39"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="41"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" s="26" t="s">
@@ -3873,7 +3873,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20110E4D-112A-4009-A074-0A7A7F2136ED}">
   <dimension ref="B2:U25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="M14" sqref="M14:M16"/>
     </sheetView>
   </sheetViews>
@@ -3898,76 +3898,76 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:21" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43"/>
-      <c r="O2" s="43"/>
-      <c r="P2" s="43"/>
-      <c r="Q2" s="43"/>
-      <c r="R2" s="43"/>
-      <c r="S2" s="43"/>
-      <c r="T2" s="43"/>
-      <c r="U2" s="43"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="45"/>
+      <c r="O2" s="45"/>
+      <c r="P2" s="45"/>
+      <c r="Q2" s="45"/>
+      <c r="R2" s="45"/>
+      <c r="S2" s="45"/>
+      <c r="T2" s="45"/>
+      <c r="U2" s="45"/>
     </row>
     <row r="3" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="46" t="s">
         <v>77</v>
       </c>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="45"/>
-      <c r="P3" s="45"/>
-      <c r="Q3" s="45"/>
-      <c r="R3" s="45"/>
-      <c r="S3" s="45"/>
-      <c r="T3" s="45"/>
-      <c r="U3" s="45"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="47"/>
+      <c r="N3" s="47"/>
+      <c r="O3" s="47"/>
+      <c r="P3" s="47"/>
+      <c r="Q3" s="47"/>
+      <c r="R3" s="47"/>
+      <c r="S3" s="47"/>
+      <c r="T3" s="47"/>
+      <c r="U3" s="47"/>
     </row>
     <row r="4" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="48" t="s">
         <v>105</v>
       </c>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="46"/>
-      <c r="N4" s="46"/>
-      <c r="O4" s="46"/>
-      <c r="P4" s="46"/>
-      <c r="Q4" s="46"/>
-      <c r="R4" s="46"/>
-      <c r="S4" s="46"/>
-      <c r="T4" s="46"/>
-      <c r="U4" s="46"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="48"/>
+      <c r="M4" s="48"/>
+      <c r="N4" s="48"/>
+      <c r="O4" s="48"/>
+      <c r="P4" s="48"/>
+      <c r="Q4" s="48"/>
+      <c r="R4" s="48"/>
+      <c r="S4" s="48"/>
+      <c r="T4" s="48"/>
+      <c r="U4" s="48"/>
     </row>
     <row r="6" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B6" s="7" t="s">
@@ -3976,33 +3976,33 @@
       <c r="C6" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="47" t="s">
+      <c r="D6" s="49" t="s">
         <v>70</v>
       </c>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="48" t="s">
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="J6" s="48" t="s">
+      <c r="J6" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="L6" s="50" t="s">
+      <c r="L6" s="52" t="s">
         <v>75</v>
       </c>
-      <c r="M6" s="51"/>
-      <c r="N6" s="52"/>
+      <c r="M6" s="53"/>
+      <c r="N6" s="54"/>
       <c r="P6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="R6" s="50" t="s">
+      <c r="R6" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="S6" s="51"/>
-      <c r="T6" s="51"/>
-      <c r="U6" s="52"/>
+      <c r="S6" s="53"/>
+      <c r="T6" s="53"/>
+      <c r="U6" s="54"/>
     </row>
     <row r="7" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B7" s="10"/>
@@ -4022,8 +4022,8 @@
       <c r="H7" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="I7" s="49"/>
-      <c r="J7" s="49"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="51"/>
       <c r="L7" s="9" t="s">
         <v>13</v>
       </c>
@@ -4210,7 +4210,7 @@
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="L14" s="2"/>
-      <c r="M14" s="54">
+      <c r="M14" s="33">
         <f>16+29</f>
         <v>45</v>
       </c>
@@ -4242,7 +4242,7 @@
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="L15" s="2"/>
-      <c r="M15" s="54">
+      <c r="M15" s="33">
         <f>3+21</f>
         <v>24</v>
       </c>
@@ -4272,7 +4272,7 @@
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
       <c r="L16" s="2"/>
-      <c r="M16" s="54">
+      <c r="M16" s="33">
         <f>4+21</f>
         <v>25</v>
       </c>
@@ -4575,76 +4575,76 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:21" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43"/>
-      <c r="O2" s="43"/>
-      <c r="P2" s="43"/>
-      <c r="Q2" s="43"/>
-      <c r="R2" s="43"/>
-      <c r="S2" s="43"/>
-      <c r="T2" s="43"/>
-      <c r="U2" s="43"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="45"/>
+      <c r="O2" s="45"/>
+      <c r="P2" s="45"/>
+      <c r="Q2" s="45"/>
+      <c r="R2" s="45"/>
+      <c r="S2" s="45"/>
+      <c r="T2" s="45"/>
+      <c r="U2" s="45"/>
     </row>
     <row r="3" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="46" t="s">
         <v>77</v>
       </c>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="45"/>
-      <c r="P3" s="45"/>
-      <c r="Q3" s="45"/>
-      <c r="R3" s="45"/>
-      <c r="S3" s="45"/>
-      <c r="T3" s="45"/>
-      <c r="U3" s="45"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="47"/>
+      <c r="N3" s="47"/>
+      <c r="O3" s="47"/>
+      <c r="P3" s="47"/>
+      <c r="Q3" s="47"/>
+      <c r="R3" s="47"/>
+      <c r="S3" s="47"/>
+      <c r="T3" s="47"/>
+      <c r="U3" s="47"/>
     </row>
     <row r="4" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="48" t="s">
         <v>69</v>
       </c>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="46"/>
-      <c r="N4" s="46"/>
-      <c r="O4" s="46"/>
-      <c r="P4" s="46"/>
-      <c r="Q4" s="46"/>
-      <c r="R4" s="46"/>
-      <c r="S4" s="46"/>
-      <c r="T4" s="46"/>
-      <c r="U4" s="46"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="48"/>
+      <c r="M4" s="48"/>
+      <c r="N4" s="48"/>
+      <c r="O4" s="48"/>
+      <c r="P4" s="48"/>
+      <c r="Q4" s="48"/>
+      <c r="R4" s="48"/>
+      <c r="S4" s="48"/>
+      <c r="T4" s="48"/>
+      <c r="U4" s="48"/>
     </row>
     <row r="6" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B6" s="7" t="s">
@@ -4653,33 +4653,33 @@
       <c r="C6" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="47" t="s">
+      <c r="D6" s="49" t="s">
         <v>70</v>
       </c>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="48" t="s">
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="J6" s="48" t="s">
+      <c r="J6" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="L6" s="50" t="s">
+      <c r="L6" s="52" t="s">
         <v>75</v>
       </c>
-      <c r="M6" s="51"/>
-      <c r="N6" s="52"/>
+      <c r="M6" s="53"/>
+      <c r="N6" s="54"/>
       <c r="P6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="R6" s="50" t="s">
+      <c r="R6" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="S6" s="51"/>
-      <c r="T6" s="51"/>
-      <c r="U6" s="52"/>
+      <c r="S6" s="53"/>
+      <c r="T6" s="53"/>
+      <c r="U6" s="54"/>
     </row>
     <row r="7" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B7" s="10"/>
@@ -4699,8 +4699,8 @@
       <c r="H7" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="I7" s="49"/>
-      <c r="J7" s="49"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="51"/>
       <c r="L7" s="9" t="s">
         <v>13</v>
       </c>
@@ -5079,8 +5079,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2944F081-873E-4266-A08B-BAA9BFDB0CB3}">
   <dimension ref="B2:U23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M11" sqref="M11:M13"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5104,76 +5104,76 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:21" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43"/>
-      <c r="O2" s="43"/>
-      <c r="P2" s="43"/>
-      <c r="Q2" s="43"/>
-      <c r="R2" s="43"/>
-      <c r="S2" s="43"/>
-      <c r="T2" s="43"/>
-      <c r="U2" s="43"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="45"/>
+      <c r="O2" s="45"/>
+      <c r="P2" s="45"/>
+      <c r="Q2" s="45"/>
+      <c r="R2" s="45"/>
+      <c r="S2" s="45"/>
+      <c r="T2" s="45"/>
+      <c r="U2" s="45"/>
     </row>
     <row r="3" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="46" t="s">
         <v>77</v>
       </c>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="45"/>
-      <c r="P3" s="45"/>
-      <c r="Q3" s="45"/>
-      <c r="R3" s="45"/>
-      <c r="S3" s="45"/>
-      <c r="T3" s="45"/>
-      <c r="U3" s="45"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="47"/>
+      <c r="N3" s="47"/>
+      <c r="O3" s="47"/>
+      <c r="P3" s="47"/>
+      <c r="Q3" s="47"/>
+      <c r="R3" s="47"/>
+      <c r="S3" s="47"/>
+      <c r="T3" s="47"/>
+      <c r="U3" s="47"/>
     </row>
     <row r="4" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="48" t="s">
         <v>96</v>
       </c>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="46"/>
-      <c r="N4" s="46"/>
-      <c r="O4" s="46"/>
-      <c r="P4" s="46"/>
-      <c r="Q4" s="46"/>
-      <c r="R4" s="46"/>
-      <c r="S4" s="46"/>
-      <c r="T4" s="46"/>
-      <c r="U4" s="46"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="48"/>
+      <c r="M4" s="48"/>
+      <c r="N4" s="48"/>
+      <c r="O4" s="48"/>
+      <c r="P4" s="48"/>
+      <c r="Q4" s="48"/>
+      <c r="R4" s="48"/>
+      <c r="S4" s="48"/>
+      <c r="T4" s="48"/>
+      <c r="U4" s="48"/>
     </row>
     <row r="6" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B6" s="7" t="s">
@@ -5182,33 +5182,33 @@
       <c r="C6" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="47" t="s">
+      <c r="D6" s="49" t="s">
         <v>70</v>
       </c>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="48" t="s">
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="J6" s="48" t="s">
+      <c r="J6" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="L6" s="50" t="s">
+      <c r="L6" s="52" t="s">
         <v>75</v>
       </c>
-      <c r="M6" s="51"/>
-      <c r="N6" s="52"/>
+      <c r="M6" s="53"/>
+      <c r="N6" s="54"/>
       <c r="P6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="R6" s="50" t="s">
+      <c r="R6" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="S6" s="51"/>
-      <c r="T6" s="51"/>
-      <c r="U6" s="52"/>
+      <c r="S6" s="53"/>
+      <c r="T6" s="53"/>
+      <c r="U6" s="54"/>
     </row>
     <row r="7" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B7" s="10"/>
@@ -5228,8 +5228,8 @@
       <c r="H7" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="I7" s="49"/>
-      <c r="J7" s="49"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="51"/>
       <c r="L7" s="9" t="s">
         <v>13</v>
       </c>
@@ -5340,7 +5340,7 @@
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="L11" s="2"/>
-      <c r="M11" s="54">
+      <c r="M11" s="33">
         <f>16+29</f>
         <v>45</v>
       </c>
@@ -5372,7 +5372,7 @@
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="L12" s="2"/>
-      <c r="M12" s="54">
+      <c r="M12" s="33">
         <f>3+21</f>
         <v>24</v>
       </c>
@@ -5402,7 +5402,7 @@
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="L13" s="2"/>
-      <c r="M13" s="54">
+      <c r="M13" s="33">
         <f>4+21</f>
         <v>25</v>
       </c>
@@ -5651,7 +5651,7 @@
         <f>SUM(M8:M21)</f>
         <v>107</v>
       </c>
-      <c r="N22" s="53">
+      <c r="N22" s="32">
         <f>SUM(N8:N21)</f>
         <v>0</v>
       </c>
